--- a/biology/Biochimie/Paradol/Paradol.xlsx
+++ b/biology/Biochimie/Paradol/Paradol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Paradol ou (6)-paradol, est un composé phénolique (de la famille des vanilloïdes) au goût piquant (pseudo-chaleur).
@@ -512,9 +524,11 @@
           <t>Structure et chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le [6]-paradol a une structure très proche du zingérone (ou (0)-paradol) avec une chaîne carbonée plus longue de 6 atomes en position bêta du groupement cétone.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le -paradol a une structure très proche du zingérone (ou (0)-paradol) avec une chaîne carbonée plus longue de 6 atomes en position bêta du groupement cétone.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Rôle dans le goût</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est lui qui donne l'impression de feu de la graine de maniguette (« Graine du paradis »)[2] et en partie de celui du gingembre[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est lui qui donne l'impression de feu de la graine de maniguette (« Graine du paradis ») et en partie de celui du gingembre.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le [6]-paradol a une activité antioxydante et antitumeur[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le -paradol a une activité antioxydante et antitumeur,.
 </t>
         </is>
       </c>
